--- a/xlsx_folder/sd.xlsx
+++ b/xlsx_folder/sd.xlsx
@@ -817,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,6 +967,43 @@
         <v>487</v>
       </c>
       <c r="I5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>24-Jan-24</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>SEATTLE'S BEST COFFEE MASTER INC</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>QUEZON CITY</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>125456454</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>MEALS</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>14545</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>30911</v>
+      </c>
+      <c r="I6" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/xlsx_folder/sd.xlsx
+++ b/xlsx_folder/sd.xlsx
@@ -1302,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,6 +1415,80 @@
         <v>491</v>
       </c>
       <c r="I4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>24-May-24</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>NOODLERAMA GROUP INC</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>QUEZON CITY</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>MEALS</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="I5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>24-May-24</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>NOODLERAMA GROUP INC</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>APALIT PAMPANGA</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12456</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>WATER</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>455</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>401</v>
+      </c>
+      <c r="I6" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">
